--- a/AkioAI/result/スプリンター.xlsx
+++ b/AkioAI/result/スプリンター.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AkioAI\result\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AkioAI\AkioAI\result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B11FF87B-C83E-445B-87E2-3DBC33BA769F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E73E1E88-721D-4FBD-9970-3307D4070771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33300" yWindow="555" windowWidth="21600" windowHeight="13470" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="5235" windowWidth="21600" windowHeight="13470" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="傾向" sheetId="1" r:id="rId1"/>
@@ -2364,7 +2364,7 @@
   <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2415,131 +2415,131 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
+        <v>12</v>
+      </c>
+      <c r="B2">
         <v>13</v>
       </c>
-      <c r="B2">
-        <v>14</v>
-      </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F2">
-        <v>41.34943181818182</v>
+        <v>38.49676724137931</v>
       </c>
       <c r="G2">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H2">
-        <v>39.708333333333343</v>
+        <v>26.684210526315791</v>
       </c>
       <c r="I2">
-        <v>16.5</v>
+        <v>15.90909090909091</v>
       </c>
       <c r="J2">
-        <v>1.600000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="K2">
-        <v>29.26</v>
+        <v>16.274999999999999</v>
       </c>
       <c r="L2">
-        <v>16.666666666666661</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="N2">
-        <v>0.50000000000001421</v>
+        <v>1.500000000000014</v>
       </c>
       <c r="O2">
-        <v>3.0379424114941709</v>
+        <v>-0.50489456035133473</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D3" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E3">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F3">
-        <v>29.09090909090909</v>
+        <v>37.016369047619051</v>
       </c>
       <c r="G3">
         <v>55</v>
       </c>
       <c r="H3">
-        <v>29.12</v>
+        <v>24.22727272727273</v>
       </c>
       <c r="I3">
-        <v>24.8125</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.89999999999999858</v>
       </c>
       <c r="K3">
-        <v>30.42592592592592</v>
+        <v>27.630434782608699</v>
       </c>
       <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
         <v>16.666666666666661</v>
-      </c>
-      <c r="M3">
-        <v>33.333333333333329</v>
       </c>
       <c r="N3">
         <v>0.50000000000001421</v>
       </c>
       <c r="O3">
-        <v>2.4315189194424258</v>
+        <v>-0.67043195843050141</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D4" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F4">
-        <v>46.531713900134953</v>
+        <v>36.15056818181818</v>
       </c>
       <c r="G4">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H4">
-        <v>27.142857142857139</v>
+        <v>22.166666666666671</v>
       </c>
       <c r="I4">
-        <v>33.333333333333329</v>
+        <v>16.5</v>
       </c>
       <c r="J4">
-        <v>2.2000000000000028</v>
+        <v>1.7000000000000031</v>
       </c>
       <c r="K4">
-        <v>32.1875</v>
+        <v>26.62</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -2548,92 +2548,92 @@
         <v>16.666666666666661</v>
       </c>
       <c r="N4">
-        <v>1.500000000000014</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="O4">
-        <v>2.0606617766977871</v>
+        <v>-1.1807014296123519E-3</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E5">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F5">
-        <v>30.71625344352616</v>
+        <v>46.150696150696149</v>
       </c>
       <c r="G5">
         <v>57</v>
       </c>
       <c r="H5">
-        <v>23.5</v>
+        <v>22.166666666666671</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>14.285714285714279</v>
       </c>
       <c r="J5">
-        <v>0.70000000000000284</v>
+        <v>1.2999999999999969</v>
       </c>
       <c r="K5">
-        <v>30.058823529411761</v>
+        <v>10.94</v>
       </c>
       <c r="L5">
-        <v>8.3333333333333321</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>33.333333333333329</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>1.500000000000014</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>1.510672549452909</v>
+        <v>-2.502886760802256</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
+        <v>10</v>
+      </c>
+      <c r="B6">
         <v>11</v>
       </c>
-      <c r="B6">
-        <v>12</v>
-      </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F6">
-        <v>48.424908424908431</v>
+        <v>46.49038461538462</v>
       </c>
       <c r="G6">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H6">
-        <v>37.636363636363633</v>
+        <v>18.27272727272727</v>
       </c>
       <c r="I6">
-        <v>33.145833333333329</v>
+        <v>16.5</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>1.7000000000000031</v>
       </c>
       <c r="K6">
-        <v>41.333333333333329</v>
+        <v>23.333333333333339</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -2645,183 +2645,183 @@
         <v>0.50000000000001421</v>
       </c>
       <c r="O6">
-        <v>1.2765989941623539</v>
+        <v>-0.34595490135711032</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7">
         <v>7</v>
       </c>
-      <c r="B7">
-        <v>8</v>
-      </c>
       <c r="C7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7">
-        <v>28.861192570869989</v>
+        <v>30.63275434243176</v>
       </c>
       <c r="G7">
         <v>57</v>
       </c>
       <c r="H7">
-        <v>32.81818181818182</v>
+        <v>26.083333333333329</v>
       </c>
       <c r="I7">
-        <v>33.333333333333329</v>
+        <v>8.6956521739130448</v>
       </c>
       <c r="J7">
-        <v>0.5</v>
+        <v>0.79999999999999716</v>
       </c>
       <c r="K7">
-        <v>37.625</v>
+        <v>26.23076923076923</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>16.666666666666661</v>
       </c>
       <c r="N7">
-        <v>0.50000000000001421</v>
+        <v>1.500000000000014</v>
       </c>
       <c r="O7">
-        <v>0.22848787769651191</v>
+        <v>-9.3188508242205814E-2</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D8" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>36.15056818181818</v>
+        <v>41.34943181818182</v>
       </c>
       <c r="G8">
         <v>57</v>
       </c>
       <c r="H8">
-        <v>22.166666666666671</v>
+        <v>39.708333333333343</v>
       </c>
       <c r="I8">
         <v>16.5</v>
       </c>
       <c r="J8">
-        <v>1.7000000000000031</v>
+        <v>1.600000000000001</v>
       </c>
       <c r="K8">
-        <v>26.62</v>
+        <v>29.26</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>16.666666666666661</v>
       </c>
       <c r="M8">
-        <v>16.666666666666661</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0.50000000000001421</v>
       </c>
       <c r="O8">
-        <v>-1.1807014296123519E-3</v>
+        <v>3.0379424114941709</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E9">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F9">
-        <v>30.63275434243176</v>
+        <v>28.861192570869989</v>
       </c>
       <c r="G9">
         <v>57</v>
       </c>
       <c r="H9">
-        <v>26.083333333333329</v>
+        <v>32.81818181818182</v>
       </c>
       <c r="I9">
-        <v>8.6956521739130448</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="J9">
-        <v>0.79999999999999716</v>
+        <v>0.5</v>
       </c>
       <c r="K9">
-        <v>26.23076923076923</v>
+        <v>37.625</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>16.666666666666661</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>1.500000000000014</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="O9">
-        <v>-9.3188508242205814E-2</v>
+        <v>0.22848787769651191</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B10">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D10" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="E10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>46.49038461538462</v>
+        <v>46.531713900134953</v>
       </c>
       <c r="G10">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H10">
-        <v>18.27272727272727</v>
+        <v>27.142857142857139</v>
       </c>
       <c r="I10">
-        <v>16.5</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="J10">
-        <v>1.7000000000000031</v>
+        <v>2.2000000000000028</v>
       </c>
       <c r="K10">
-        <v>23.333333333333339</v>
+        <v>32.1875</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -2830,48 +2830,48 @@
         <v>16.666666666666661</v>
       </c>
       <c r="N10">
-        <v>0.50000000000001421</v>
+        <v>1.500000000000014</v>
       </c>
       <c r="O10">
-        <v>-0.34595490135711032</v>
+        <v>2.0606617766977871</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B11">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D11" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="E11">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F11">
-        <v>38.49676724137931</v>
+        <v>30.71625344352616</v>
       </c>
       <c r="G11">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H11">
-        <v>26.684210526315791</v>
+        <v>23.5</v>
       </c>
       <c r="I11">
-        <v>15.90909090909091</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>1.5</v>
+        <v>0.70000000000000284</v>
       </c>
       <c r="K11">
-        <v>16.274999999999999</v>
+        <v>30.058823529411761</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>8.3333333333333321</v>
       </c>
       <c r="M11">
         <v>33.333333333333329</v>
@@ -2880,42 +2880,42 @@
         <v>1.500000000000014</v>
       </c>
       <c r="O11">
-        <v>-0.50489456035133473</v>
+        <v>1.510672549452909</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B12">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D12" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="E12">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F12">
-        <v>37.016369047619051</v>
+        <v>50.696150696150688</v>
       </c>
       <c r="G12">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H12">
-        <v>24.22727272727273</v>
+        <v>17.72</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="J12">
-        <v>0.89999999999999858</v>
+        <v>0.79999999999999716</v>
       </c>
       <c r="K12">
-        <v>27.630434782608699</v>
+        <v>16.07692307692308</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -2927,42 +2927,42 @@
         <v>0.50000000000001421</v>
       </c>
       <c r="O12">
-        <v>-0.67043195843050141</v>
+        <v>-2.0016462312286269</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D13" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E13">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F13">
-        <v>57.30094466936572</v>
+        <v>30.71625344352616</v>
       </c>
       <c r="G13">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H13">
-        <v>19</v>
+        <v>36.285714285714278</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>16.666666666666661</v>
       </c>
       <c r="J13">
-        <v>1.100000000000001</v>
+        <v>0.20000000000000279</v>
       </c>
       <c r="K13">
-        <v>21.45454545454545</v>
+        <v>27.875</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -2971,95 +2971,95 @@
         <v>16.666666666666661</v>
       </c>
       <c r="N13">
-        <v>0.50000000000001421</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>-1.089691033420547</v>
+        <v>-1.594708328702676</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B14">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14">
         <v>6</v>
       </c>
-      <c r="C14" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" t="s">
-        <v>76</v>
-      </c>
-      <c r="E14">
-        <v>7</v>
-      </c>
       <c r="F14">
-        <v>30.71625344352616</v>
+        <v>29.09090909090909</v>
       </c>
       <c r="G14">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H14">
-        <v>36.285714285714278</v>
+        <v>29.12</v>
       </c>
       <c r="I14">
+        <v>24.8125</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>30.42592592592592</v>
+      </c>
+      <c r="L14">
         <v>16.666666666666661</v>
       </c>
-      <c r="J14">
-        <v>0.20000000000000279</v>
-      </c>
-      <c r="K14">
-        <v>27.875</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
       <c r="M14">
-        <v>16.666666666666661</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="O14">
-        <v>-1.594708328702676</v>
+        <v>2.4315189194424258</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15">
         <v>15</v>
       </c>
-      <c r="C15" t="s">
-        <v>67</v>
-      </c>
-      <c r="D15" t="s">
-        <v>85</v>
-      </c>
-      <c r="E15">
-        <v>16</v>
-      </c>
       <c r="F15">
-        <v>42.916666666666657</v>
+        <v>57.30094466936572</v>
       </c>
       <c r="G15">
         <v>57</v>
       </c>
       <c r="H15">
-        <v>14.66666666666667</v>
+        <v>19</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.20000000000000279</v>
+        <v>1.100000000000001</v>
       </c>
       <c r="K15">
-        <v>12.77272727272727</v>
+        <v>21.45454545454545</v>
       </c>
       <c r="L15">
-        <v>8.3333333333333321</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>16.666666666666661</v>
@@ -3068,42 +3068,42 @@
         <v>0.50000000000001421</v>
       </c>
       <c r="O15">
-        <v>-1.7412995449812929</v>
+        <v>-1.089691033420547</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
+        <v>11</v>
+      </c>
+      <c r="B16">
+        <v>12</v>
+      </c>
+      <c r="C16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>48.424908424908431</v>
+      </c>
+      <c r="G16">
+        <v>55</v>
+      </c>
+      <c r="H16">
+        <v>37.636363636363633</v>
+      </c>
+      <c r="I16">
+        <v>33.145833333333329</v>
+      </c>
+      <c r="J16">
         <v>1</v>
       </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-      <c r="C16" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" t="s">
-        <v>72</v>
-      </c>
-      <c r="E16">
-        <v>14</v>
-      </c>
-      <c r="F16">
-        <v>50.696150696150688</v>
-      </c>
-      <c r="G16">
-        <v>57</v>
-      </c>
-      <c r="H16">
-        <v>17.72</v>
-      </c>
-      <c r="I16">
-        <v>12.5</v>
-      </c>
-      <c r="J16">
-        <v>0.79999999999999716</v>
-      </c>
       <c r="K16">
-        <v>16.07692307692308</v>
+        <v>41.333333333333329</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -3115,59 +3115,59 @@
         <v>0.50000000000001421</v>
       </c>
       <c r="O16">
-        <v>-2.0016462312286269</v>
+        <v>1.2765989941623539</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="D17" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="E17">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F17">
-        <v>46.150696150696149</v>
+        <v>42.916666666666657</v>
       </c>
       <c r="G17">
         <v>57</v>
       </c>
       <c r="H17">
-        <v>22.166666666666671</v>
+        <v>14.66666666666667</v>
       </c>
       <c r="I17">
-        <v>14.285714285714279</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>1.2999999999999969</v>
+        <v>0.20000000000000279</v>
       </c>
       <c r="K17">
-        <v>10.94</v>
+        <v>12.77272727272727</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>8.3333333333333321</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>16.666666666666661</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="O17">
-        <v>-2.502886760802256</v>
+        <v>-1.7412995449812929</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O17">
-    <sortCondition descending="1" ref="O2:O17"/>
+    <sortCondition ref="C1:C17"/>
   </sortState>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AkioAI/result/スプリンター.xlsx
+++ b/AkioAI/result/スプリンター.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AkioAI\AkioAI\result\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\AkioAIテスト環境\Akio_AI9.9\result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E73E1E88-721D-4FBD-9970-3307D4070771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A5F7BCE-75E9-408E-84D0-90260FE4977B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5235" windowWidth="21600" windowHeight="13470" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33255" yWindow="1710" windowWidth="21600" windowHeight="13470" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="傾向" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="117">
   <si>
     <t>Unnamed: 0.1</t>
   </si>
@@ -375,6 +375,13 @@
     <t>人気</t>
     <rPh sb="0" eb="2">
       <t>ニンキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>結果</t>
+    <rPh sb="0" eb="2">
+      <t>ケッカ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -415,7 +422,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -438,20 +445,131 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="19">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -462,6 +580,49 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{958F97C0-31DE-40FA-8099-28006A093ED5}" name="テーブル1" displayName="テーブル1" ref="A1:O17" totalsRowShown="0" headerRowDxfId="18" dataDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="15">
+  <autoFilter ref="A1:O17" xr:uid="{958F97C0-31DE-40FA-8099-28006A093ED5}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
+    <filterColumn colId="6" hiddenButton="1"/>
+    <filterColumn colId="7" hiddenButton="1"/>
+    <filterColumn colId="8" hiddenButton="1"/>
+    <filterColumn colId="9" hiddenButton="1"/>
+    <filterColumn colId="10" hiddenButton="1"/>
+    <filterColumn colId="11" hiddenButton="1"/>
+    <filterColumn colId="12" hiddenButton="1"/>
+    <filterColumn colId="13" hiddenButton="1"/>
+    <filterColumn colId="14" hiddenButton="1"/>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O17">
+    <sortCondition ref="O1:O17"/>
+  </sortState>
+  <tableColumns count="15">
+    <tableColumn id="1" xr3:uid="{712224C8-6C47-4F16-907E-4DC6220B0DDC}" name="馬番" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{F165D229-3FB3-454D-9BB3-528F1AE153FB}" name="馬名" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{C34301B2-EA88-466E-A772-DA9C7679739F}" name="騎手" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{51C9A24B-F29B-4C28-B299-5A9DC7E023ED}" name="人気" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{918ECD31-9BA8-43FA-B9F6-65763203B728}" name="枠値" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{A2F77891-3390-4E8E-8914-3879322D93F7}" name="斤量値" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{52AA09FF-C824-43F9-B339-670656831477}" name="距離適正" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{4818BD06-B331-4D1F-B5CF-C5E3D4069C52}" name="騎手（このレース）" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{26ACAECF-1F28-4499-A38E-ED0405BEA40E}" name="上り" dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{21359935-1F22-4377-8768-BBE33E8A0E22}" name="馬実績" dataDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{69638EA9-F90A-4615-9F1D-84A8C0581D0C}" name="馬血統" dataDxfId="4"/>
+    <tableColumn id="12" xr3:uid="{97068AA5-7A43-48CF-A08E-F0CAF1587EE6}" name="前走" dataDxfId="3"/>
+    <tableColumn id="13" xr3:uid="{17427B17-3883-4EBB-B92A-F855ED34A8E3}" name="タイム" dataDxfId="2"/>
+    <tableColumn id="14" xr3:uid="{A3F46D77-7BEC-4FBD-9ACA-6F5EA3196183}" name="指数" dataDxfId="1"/>
+    <tableColumn id="15" xr3:uid="{523B8E51-DE86-4264-919C-92FCD7D42FFE}" name="結果" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1780,9 +1941,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -2363,813 +2522,822 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="6.75" customWidth="1"/>
+    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="13" width="9" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>114</v>
       </c>
+      <c r="O1" s="3" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="2">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2">
+        <v>46.531713900134953</v>
+      </c>
+      <c r="F2" s="2">
+        <v>55</v>
+      </c>
+      <c r="G2" s="2">
+        <v>27.142857142857139</v>
+      </c>
+      <c r="H2" s="2">
+        <v>33.333333333333329</v>
+      </c>
+      <c r="I2" s="2">
+        <v>2.2000000000000028</v>
+      </c>
+      <c r="J2" s="2">
+        <v>32.1875</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2">
+        <v>16.666666666666661</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1.500000000000014</v>
+      </c>
+      <c r="N2" s="2">
+        <v>2.0606617766977871</v>
+      </c>
+      <c r="O2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A3" s="2">
         <v>12</v>
       </c>
-      <c r="B2">
+      <c r="B3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2">
+        <v>48.424908424908431</v>
+      </c>
+      <c r="F3" s="2">
+        <v>55</v>
+      </c>
+      <c r="G3" s="2">
+        <v>37.636363636363633</v>
+      </c>
+      <c r="H3" s="2">
+        <v>33.145833333333329</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1</v>
+      </c>
+      <c r="J3" s="2">
+        <v>41.333333333333329</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2">
+        <v>16.666666666666661</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0.50000000000001421</v>
+      </c>
+      <c r="N3" s="2">
+        <v>1.2765989941623539</v>
+      </c>
+      <c r="O3" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="2">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2">
+        <v>46.150696150696149</v>
+      </c>
+      <c r="F4" s="2">
+        <v>57</v>
+      </c>
+      <c r="G4" s="2">
+        <v>22.166666666666671</v>
+      </c>
+      <c r="H4" s="2">
+        <v>14.285714285714279</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1.2999999999999969</v>
+      </c>
+      <c r="J4" s="2">
+        <v>10.94</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0</v>
+      </c>
+      <c r="N4" s="2">
+        <v>-2.502886760802256</v>
+      </c>
+      <c r="O4" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A5" s="2">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="2">
+        <v>7</v>
+      </c>
+      <c r="E5" s="2">
+        <v>30.71625344352616</v>
+      </c>
+      <c r="F5" s="2">
+        <v>53</v>
+      </c>
+      <c r="G5" s="2">
+        <v>36.285714285714278</v>
+      </c>
+      <c r="H5" s="2">
+        <v>16.666666666666661</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0.20000000000000279</v>
+      </c>
+      <c r="J5" s="2">
+        <v>27.875</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2">
+        <v>16.666666666666661</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0</v>
+      </c>
+      <c r="N5" s="2">
+        <v>-1.594708328702676</v>
+      </c>
+      <c r="O5" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
+        <v>16</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="2">
+        <v>5</v>
+      </c>
+      <c r="E6" s="2">
+        <v>29.09090909090909</v>
+      </c>
+      <c r="F6" s="2">
+        <v>55</v>
+      </c>
+      <c r="G6" s="2">
+        <v>29.12</v>
+      </c>
+      <c r="H6" s="2">
+        <v>24.8125</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1</v>
+      </c>
+      <c r="J6" s="2">
+        <v>30.42592592592592</v>
+      </c>
+      <c r="K6" s="2">
+        <v>16.666666666666661</v>
+      </c>
+      <c r="L6" s="2">
+        <v>33.333333333333329</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0.50000000000001421</v>
+      </c>
+      <c r="N6" s="2">
+        <v>2.4315189194424258</v>
+      </c>
+      <c r="O6" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A7" s="2">
+        <v>14</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2">
+        <v>41.34943181818182</v>
+      </c>
+      <c r="F7" s="2">
+        <v>57</v>
+      </c>
+      <c r="G7" s="2">
+        <v>39.708333333333343</v>
+      </c>
+      <c r="H7" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1.600000000000001</v>
+      </c>
+      <c r="J7" s="2">
+        <v>29.26</v>
+      </c>
+      <c r="K7" s="2">
+        <v>16.666666666666661</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0.50000000000001421</v>
+      </c>
+      <c r="N7" s="2">
+        <v>3.0379424114941709</v>
+      </c>
+      <c r="O7" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A8" s="2">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="2">
+        <v>9</v>
+      </c>
+      <c r="E8" s="2">
+        <v>28.861192570869989</v>
+      </c>
+      <c r="F8" s="2">
+        <v>57</v>
+      </c>
+      <c r="G8" s="2">
+        <v>32.81818181818182</v>
+      </c>
+      <c r="H8" s="2">
+        <v>33.333333333333329</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="J8" s="2">
+        <v>37.625</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0.50000000000001421</v>
+      </c>
+      <c r="N8" s="2">
+        <v>0.22848787769651191</v>
+      </c>
+      <c r="O8" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A9" s="2">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="2">
+        <v>6</v>
+      </c>
+      <c r="E9" s="2">
+        <v>36.15056818181818</v>
+      </c>
+      <c r="F9" s="2">
+        <v>57</v>
+      </c>
+      <c r="G9" s="2">
+        <v>22.166666666666671</v>
+      </c>
+      <c r="H9" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1.7000000000000031</v>
+      </c>
+      <c r="J9" s="2">
+        <v>26.62</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2">
+        <v>16.666666666666661</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0.50000000000001421</v>
+      </c>
+      <c r="N9" s="2">
+        <v>-1.1807014296123519E-3</v>
+      </c>
+      <c r="O9" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A10" s="2">
+        <v>2</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="2">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E10" s="2">
+        <v>50.696150696150688</v>
+      </c>
+      <c r="F10" s="2">
+        <v>57</v>
+      </c>
+      <c r="G10" s="2">
+        <v>17.72</v>
+      </c>
+      <c r="H10" s="2">
+        <v>12.5</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0.79999999999999716</v>
+      </c>
+      <c r="J10" s="2">
+        <v>16.07692307692308</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2">
+        <v>16.666666666666661</v>
+      </c>
+      <c r="M10" s="2">
+        <v>0.50000000000001421</v>
+      </c>
+      <c r="N10" s="2">
+        <v>-2.0016462312286269</v>
+      </c>
+      <c r="O10" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A11" s="2">
+        <v>3</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="2">
+        <v>15</v>
+      </c>
+      <c r="E11" s="2">
+        <v>57.30094466936572</v>
+      </c>
+      <c r="F11" s="2">
+        <v>57</v>
+      </c>
+      <c r="G11" s="2">
+        <v>19</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2">
+        <v>1.100000000000001</v>
+      </c>
+      <c r="J11" s="2">
+        <v>21.45454545454545</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2">
+        <v>16.666666666666661</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0.50000000000001421</v>
+      </c>
+      <c r="N11" s="2">
+        <v>-1.089691033420547</v>
+      </c>
+      <c r="O11" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="2">
+        <v>4</v>
+      </c>
+      <c r="E12" s="2">
+        <v>46.49038461538462</v>
+      </c>
+      <c r="F12" s="2">
+        <v>57</v>
+      </c>
+      <c r="G12" s="2">
+        <v>18.27272727272727</v>
+      </c>
+      <c r="H12" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="I12" s="2">
+        <v>1.7000000000000031</v>
+      </c>
+      <c r="J12" s="2">
+        <v>23.333333333333339</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2">
+        <v>16.666666666666661</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0.50000000000001421</v>
+      </c>
+      <c r="N12" s="2">
+        <v>-0.34595490135711032</v>
+      </c>
+      <c r="O12" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A13" s="2">
+        <v>7</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="2">
+        <v>11</v>
+      </c>
+      <c r="E13" s="2">
+        <v>30.63275434243176</v>
+      </c>
+      <c r="F13" s="2">
+        <v>57</v>
+      </c>
+      <c r="G13" s="2">
+        <v>26.083333333333329</v>
+      </c>
+      <c r="H13" s="2">
+        <v>8.6956521739130448</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0.79999999999999716</v>
+      </c>
+      <c r="J13" s="2">
+        <v>26.23076923076923</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0</v>
+      </c>
+      <c r="L13" s="2">
+        <v>16.666666666666661</v>
+      </c>
+      <c r="M13" s="2">
+        <v>1.500000000000014</v>
+      </c>
+      <c r="N13" s="2">
+        <v>-9.3188508242205814E-2</v>
+      </c>
+      <c r="O13" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A14" s="2">
+        <v>10</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="2">
+        <v>14</v>
+      </c>
+      <c r="E14" s="2">
+        <v>37.016369047619051</v>
+      </c>
+      <c r="F14" s="2">
+        <v>55</v>
+      </c>
+      <c r="G14" s="2">
+        <v>24.22727272727273</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0.89999999999999858</v>
+      </c>
+      <c r="J14" s="2">
+        <v>27.630434782608699</v>
+      </c>
+      <c r="K14" s="2">
+        <v>0</v>
+      </c>
+      <c r="L14" s="2">
+        <v>16.666666666666661</v>
+      </c>
+      <c r="M14" s="2">
+        <v>0.50000000000001421</v>
+      </c>
+      <c r="N14" s="2">
+        <v>-0.67043195843050141</v>
+      </c>
+      <c r="O14" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A15" s="2">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C15" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E2">
-        <v>11</v>
-      </c>
-      <c r="F2">
+      <c r="D15" s="2">
+        <v>12</v>
+      </c>
+      <c r="E15" s="2">
         <v>38.49676724137931</v>
       </c>
-      <c r="G2">
+      <c r="F15" s="2">
         <v>55</v>
       </c>
-      <c r="H2">
+      <c r="G15" s="2">
         <v>26.684210526315791</v>
       </c>
-      <c r="I2">
+      <c r="H15" s="2">
         <v>15.90909090909091</v>
       </c>
-      <c r="J2">
+      <c r="I15" s="2">
         <v>1.5</v>
       </c>
-      <c r="K2">
+      <c r="J15" s="2">
         <v>16.274999999999999</v>
       </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
+      <c r="K15" s="2">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2">
         <v>33.333333333333329</v>
       </c>
-      <c r="N2">
+      <c r="M15" s="2">
         <v>1.500000000000014</v>
       </c>
-      <c r="O2">
+      <c r="N15" s="2">
         <v>-0.50489456035133473</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>9</v>
-      </c>
-      <c r="B3">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E3">
-        <v>13</v>
-      </c>
-      <c r="F3">
-        <v>37.016369047619051</v>
-      </c>
-      <c r="G3">
-        <v>55</v>
-      </c>
-      <c r="H3">
-        <v>24.22727272727273</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0.89999999999999858</v>
-      </c>
-      <c r="K3">
-        <v>27.630434782608699</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
+      <c r="O15" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A16" s="2">
+        <v>5</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" s="2">
+        <v>8</v>
+      </c>
+      <c r="E16" s="2">
+        <v>30.71625344352616</v>
+      </c>
+      <c r="F16" s="2">
+        <v>57</v>
+      </c>
+      <c r="G16" s="2">
+        <v>23.5</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0.70000000000000284</v>
+      </c>
+      <c r="J16" s="2">
+        <v>30.058823529411761</v>
+      </c>
+      <c r="K16" s="2">
+        <v>8.3333333333333321</v>
+      </c>
+      <c r="L16" s="2">
+        <v>33.333333333333329</v>
+      </c>
+      <c r="M16" s="2">
+        <v>1.500000000000014</v>
+      </c>
+      <c r="N16" s="2">
+        <v>1.510672549452909</v>
+      </c>
+      <c r="O16" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A17" s="2">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D17" s="2">
+        <v>16</v>
+      </c>
+      <c r="E17" s="2">
+        <v>42.916666666666657</v>
+      </c>
+      <c r="F17" s="2">
+        <v>57</v>
+      </c>
+      <c r="G17" s="2">
+        <v>14.66666666666667</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0.20000000000000279</v>
+      </c>
+      <c r="J17" s="2">
+        <v>12.77272727272727</v>
+      </c>
+      <c r="K17" s="2">
+        <v>8.3333333333333321</v>
+      </c>
+      <c r="L17" s="2">
         <v>16.666666666666661</v>
       </c>
-      <c r="N3">
+      <c r="M17" s="2">
         <v>0.50000000000001421</v>
       </c>
-      <c r="O3">
-        <v>-0.67043195843050141</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>8</v>
-      </c>
-      <c r="B4">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E4">
-        <v>5</v>
-      </c>
-      <c r="F4">
-        <v>36.15056818181818</v>
-      </c>
-      <c r="G4">
-        <v>57</v>
-      </c>
-      <c r="H4">
-        <v>22.166666666666671</v>
-      </c>
-      <c r="I4">
-        <v>16.5</v>
-      </c>
-      <c r="J4">
-        <v>1.7000000000000031</v>
-      </c>
-      <c r="K4">
-        <v>26.62</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>16.666666666666661</v>
-      </c>
-      <c r="N4">
-        <v>0.50000000000001421</v>
-      </c>
-      <c r="O4">
-        <v>-1.1807014296123519E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
-        <v>0</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E5">
-        <v>12</v>
-      </c>
-      <c r="F5">
-        <v>46.150696150696149</v>
-      </c>
-      <c r="G5">
-        <v>57</v>
-      </c>
-      <c r="H5">
-        <v>22.166666666666671</v>
-      </c>
-      <c r="I5">
-        <v>14.285714285714279</v>
-      </c>
-      <c r="J5">
-        <v>1.2999999999999969</v>
-      </c>
-      <c r="K5">
-        <v>10.94</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>-2.502886760802256</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
-        <v>10</v>
-      </c>
-      <c r="B6">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D6" t="s">
-        <v>81</v>
-      </c>
-      <c r="E6">
-        <v>4</v>
-      </c>
-      <c r="F6">
-        <v>46.49038461538462</v>
-      </c>
-      <c r="G6">
-        <v>57</v>
-      </c>
-      <c r="H6">
-        <v>18.27272727272727</v>
-      </c>
-      <c r="I6">
-        <v>16.5</v>
-      </c>
-      <c r="J6">
-        <v>1.7000000000000031</v>
-      </c>
-      <c r="K6">
-        <v>23.333333333333339</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>16.666666666666661</v>
-      </c>
-      <c r="N6">
-        <v>0.50000000000001421</v>
-      </c>
-      <c r="O6">
-        <v>-0.34595490135711032</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" t="s">
-        <v>77</v>
-      </c>
-      <c r="E7">
-        <v>10</v>
-      </c>
-      <c r="F7">
-        <v>30.63275434243176</v>
-      </c>
-      <c r="G7">
-        <v>57</v>
-      </c>
-      <c r="H7">
-        <v>26.083333333333329</v>
-      </c>
-      <c r="I7">
-        <v>8.6956521739130448</v>
-      </c>
-      <c r="J7">
-        <v>0.79999999999999716</v>
-      </c>
-      <c r="K7">
-        <v>26.23076923076923</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>16.666666666666661</v>
-      </c>
-      <c r="N7">
-        <v>1.500000000000014</v>
-      </c>
-      <c r="O7">
-        <v>-9.3188508242205814E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A8" s="1">
-        <v>13</v>
-      </c>
-      <c r="B8">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D8" t="s">
-        <v>84</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>41.34943181818182</v>
-      </c>
-      <c r="G8">
-        <v>57</v>
-      </c>
-      <c r="H8">
-        <v>39.708333333333343</v>
-      </c>
-      <c r="I8">
-        <v>16.5</v>
-      </c>
-      <c r="J8">
-        <v>1.600000000000001</v>
-      </c>
-      <c r="K8">
-        <v>29.26</v>
-      </c>
-      <c r="L8">
-        <v>16.666666666666661</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0.50000000000001421</v>
-      </c>
-      <c r="O8">
-        <v>3.0379424114941709</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" t="s">
-        <v>78</v>
-      </c>
-      <c r="E9">
-        <v>9</v>
-      </c>
-      <c r="F9">
-        <v>28.861192570869989</v>
-      </c>
-      <c r="G9">
-        <v>57</v>
-      </c>
-      <c r="H9">
-        <v>32.81818181818182</v>
-      </c>
-      <c r="I9">
-        <v>33.333333333333329</v>
-      </c>
-      <c r="J9">
-        <v>0.5</v>
-      </c>
-      <c r="K9">
-        <v>37.625</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0.50000000000001421</v>
-      </c>
-      <c r="O9">
-        <v>0.22848787769651191</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A10" s="1">
-        <v>3</v>
-      </c>
-      <c r="B10">
-        <v>4</v>
-      </c>
-      <c r="C10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" t="s">
-        <v>74</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>46.531713900134953</v>
-      </c>
-      <c r="G10">
-        <v>55</v>
-      </c>
-      <c r="H10">
-        <v>27.142857142857139</v>
-      </c>
-      <c r="I10">
-        <v>33.333333333333329</v>
-      </c>
-      <c r="J10">
-        <v>2.2000000000000028</v>
-      </c>
-      <c r="K10">
-        <v>32.1875</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>16.666666666666661</v>
-      </c>
-      <c r="N10">
-        <v>1.500000000000014</v>
-      </c>
-      <c r="O10">
-        <v>2.0606617766977871</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A11" s="1">
-        <v>4</v>
-      </c>
-      <c r="B11">
-        <v>5</v>
-      </c>
-      <c r="C11" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" t="s">
-        <v>75</v>
-      </c>
-      <c r="E11">
-        <v>8</v>
-      </c>
-      <c r="F11">
-        <v>30.71625344352616</v>
-      </c>
-      <c r="G11">
-        <v>57</v>
-      </c>
-      <c r="H11">
-        <v>23.5</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0.70000000000000284</v>
-      </c>
-      <c r="K11">
-        <v>30.058823529411761</v>
-      </c>
-      <c r="L11">
-        <v>8.3333333333333321</v>
-      </c>
-      <c r="M11">
-        <v>33.333333333333329</v>
-      </c>
-      <c r="N11">
-        <v>1.500000000000014</v>
-      </c>
-      <c r="O11">
-        <v>1.510672549452909</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A12" s="1">
-        <v>1</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" t="s">
-        <v>72</v>
-      </c>
-      <c r="E12">
-        <v>14</v>
-      </c>
-      <c r="F12">
-        <v>50.696150696150688</v>
-      </c>
-      <c r="G12">
-        <v>57</v>
-      </c>
-      <c r="H12">
-        <v>17.72</v>
-      </c>
-      <c r="I12">
-        <v>12.5</v>
-      </c>
-      <c r="J12">
-        <v>0.79999999999999716</v>
-      </c>
-      <c r="K12">
-        <v>16.07692307692308</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>16.666666666666661</v>
-      </c>
-      <c r="N12">
-        <v>0.50000000000001421</v>
-      </c>
-      <c r="O12">
-        <v>-2.0016462312286269</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A13" s="1">
-        <v>5</v>
-      </c>
-      <c r="B13">
-        <v>6</v>
-      </c>
-      <c r="C13" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" t="s">
-        <v>76</v>
-      </c>
-      <c r="E13">
-        <v>7</v>
-      </c>
-      <c r="F13">
-        <v>30.71625344352616</v>
-      </c>
-      <c r="G13">
-        <v>53</v>
-      </c>
-      <c r="H13">
-        <v>36.285714285714278</v>
-      </c>
-      <c r="I13">
-        <v>16.666666666666661</v>
-      </c>
-      <c r="J13">
-        <v>0.20000000000000279</v>
-      </c>
-      <c r="K13">
-        <v>27.875</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>16.666666666666661</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>-1.594708328702676</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A14" s="1">
-        <v>15</v>
-      </c>
-      <c r="B14">
+      <c r="N17" s="2">
+        <v>-1.7412995449812929</v>
+      </c>
+      <c r="O17" s="2">
         <v>16</v>
       </c>
-      <c r="C14" t="s">
-        <v>68</v>
-      </c>
-      <c r="D14" t="s">
-        <v>86</v>
-      </c>
-      <c r="E14">
-        <v>6</v>
-      </c>
-      <c r="F14">
-        <v>29.09090909090909</v>
-      </c>
-      <c r="G14">
-        <v>55</v>
-      </c>
-      <c r="H14">
-        <v>29.12</v>
-      </c>
-      <c r="I14">
-        <v>24.8125</v>
-      </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
-      <c r="K14">
-        <v>30.42592592592592</v>
-      </c>
-      <c r="L14">
-        <v>16.666666666666661</v>
-      </c>
-      <c r="M14">
-        <v>33.333333333333329</v>
-      </c>
-      <c r="N14">
-        <v>0.50000000000001421</v>
-      </c>
-      <c r="O14">
-        <v>2.4315189194424258</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A15" s="1">
-        <v>2</v>
-      </c>
-      <c r="B15">
-        <v>3</v>
-      </c>
-      <c r="C15" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" t="s">
-        <v>73</v>
-      </c>
-      <c r="E15">
-        <v>15</v>
-      </c>
-      <c r="F15">
-        <v>57.30094466936572</v>
-      </c>
-      <c r="G15">
-        <v>57</v>
-      </c>
-      <c r="H15">
-        <v>19</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>1.100000000000001</v>
-      </c>
-      <c r="K15">
-        <v>21.45454545454545</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>16.666666666666661</v>
-      </c>
-      <c r="N15">
-        <v>0.50000000000001421</v>
-      </c>
-      <c r="O15">
-        <v>-1.089691033420547</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A16" s="1">
-        <v>11</v>
-      </c>
-      <c r="B16">
-        <v>12</v>
-      </c>
-      <c r="C16" t="s">
-        <v>64</v>
-      </c>
-      <c r="D16" t="s">
-        <v>82</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>48.424908424908431</v>
-      </c>
-      <c r="G16">
-        <v>55</v>
-      </c>
-      <c r="H16">
-        <v>37.636363636363633</v>
-      </c>
-      <c r="I16">
-        <v>33.145833333333329</v>
-      </c>
-      <c r="J16">
-        <v>1</v>
-      </c>
-      <c r="K16">
-        <v>41.333333333333329</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>16.666666666666661</v>
-      </c>
-      <c r="N16">
-        <v>0.50000000000001421</v>
-      </c>
-      <c r="O16">
-        <v>1.2765989941623539</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A17" s="1">
-        <v>14</v>
-      </c>
-      <c r="B17">
-        <v>15</v>
-      </c>
-      <c r="C17" t="s">
-        <v>67</v>
-      </c>
-      <c r="D17" t="s">
-        <v>85</v>
-      </c>
-      <c r="E17">
-        <v>16</v>
-      </c>
-      <c r="F17">
-        <v>42.916666666666657</v>
-      </c>
-      <c r="G17">
-        <v>57</v>
-      </c>
-      <c r="H17">
-        <v>14.66666666666667</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0.20000000000000279</v>
-      </c>
-      <c r="K17">
-        <v>12.77272727272727</v>
-      </c>
-      <c r="L17">
-        <v>8.3333333333333321</v>
-      </c>
-      <c r="M17">
-        <v>16.666666666666661</v>
-      </c>
-      <c r="N17">
-        <v>0.50000000000001421</v>
-      </c>
-      <c r="O17">
-        <v>-1.7412995449812929</v>
-      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O17">
-    <sortCondition ref="C1:C17"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N17">
+    <sortCondition descending="1" ref="N1:N17"/>
   </sortState>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>